--- a/uploads/output_head.xlsx
+++ b/uploads/output_head.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\pg-hackathon\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212E52CD-8E01-4CA5-BEF6-99261AC5E76A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705FE5B5-8961-4E80-ABFC-86BD0D554093}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="BF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="BN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BU1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="BV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="CD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -149,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="CL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CS1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
+    <comment ref="CT1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
+    <comment ref="DB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
+    <comment ref="DJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000E000000}">
+    <comment ref="EQ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EU1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000F000000}">
+    <comment ref="EV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000010000000}">
+    <comment ref="FA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000010000000}">
       <text>
         <r>
           <rPr>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="65">
   <si>
     <t>other names currently or previously used</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>app id</t>
   </si>
 </sst>
 </file>
@@ -732,509 +735,512 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:FH2"/>
+  <dimension ref="A1:FI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FG1" workbookViewId="0">
-      <selection activeCell="FI2" sqref="FI2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:164" ht="15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:165" ht="15">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CL1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CP1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CR1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="CR1" s="3" t="s">
+      <c r="CS1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="CS1" s="4" t="s">
+      <c r="CT1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CU1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CV1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CW1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="CX1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="CY1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="CY1" s="2" t="s">
+      <c r="CZ1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="CZ1" s="3" t="s">
+      <c r="DA1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="DB1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="DB1" s="2" t="s">
+      <c r="DC1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="DC1" s="2" t="s">
+      <c r="DD1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="DD1" s="2" t="s">
+      <c r="DE1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="DE1" s="2" t="s">
+      <c r="DF1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="DF1" s="2" t="s">
+      <c r="DG1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="DG1" s="2" t="s">
+      <c r="DH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="DH1" s="3" t="s">
+      <c r="DI1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="DJ1" s="2" t="s">
+      <c r="DK1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="DK1" s="2" t="s">
+      <c r="DL1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="DL1" s="2" t="s">
+      <c r="DM1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="DM1" s="2" t="s">
+      <c r="DN1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="DN1" s="2" t="s">
+      <c r="DO1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="DO1" s="2" t="s">
+      <c r="DP1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="DP1" s="3" t="s">
+      <c r="DQ1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="DQ1" s="2" t="s">
+      <c r="DR1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="DR1" s="2" t="s">
+      <c r="DS1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="DS1" s="2" t="s">
+      <c r="DT1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="DT1" s="2" t="s">
+      <c r="DU1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="DU1" s="2" t="s">
+      <c r="DV1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="DV1" s="2" t="s">
+      <c r="DW1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="DW1" s="2" t="s">
+      <c r="DX1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="DX1" s="2" t="s">
+      <c r="DY1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="DZ1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="EA1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="EA1" s="2" t="s">
+      <c r="EB1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="EB1" s="2" t="s">
+      <c r="EC1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="EC1" s="2" t="s">
+      <c r="ED1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="ED1" s="2" t="s">
+      <c r="EE1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="EE1" s="2" t="s">
+      <c r="EF1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="EF1" s="2" t="s">
+      <c r="EG1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="EG1" s="2" t="s">
+      <c r="EH1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="EH1" s="2" t="s">
+      <c r="EI1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="EI1" s="2" t="s">
+      <c r="EJ1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="EJ1" s="2" t="s">
+      <c r="EK1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="EK1" s="2" t="s">
+      <c r="EL1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="EL1" s="2" t="s">
+      <c r="EM1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="EM1" s="2" t="s">
+      <c r="EN1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="EN1" s="2" t="s">
+      <c r="EO1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="EO1" s="2" t="s">
+      <c r="EP1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="EP1" s="4" t="s">
+      <c r="EQ1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="EQ1" s="2" t="s">
+      <c r="ER1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="ER1" s="2" t="s">
+      <c r="ES1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="ES1" s="2" t="s">
+      <c r="ET1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="ET1" s="2" t="s">
+      <c r="EU1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="EU1" s="4" t="s">
+      <c r="EV1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="EV1" s="2" t="s">
+      <c r="EW1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="EW1" s="2" t="s">
+      <c r="EX1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="EX1" s="2" t="s">
+      <c r="EY1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="EY1" s="2" t="s">
+      <c r="EZ1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="EZ1" s="4" t="s">
+      <c r="FA1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="FA1" s="2" t="s">
+      <c r="FB1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="FB1" s="2" t="s">
+      <c r="FC1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="FC1" s="2" t="s">
+      <c r="FD1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="FD1" s="2" t="s">
+      <c r="FE1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="FE1" s="2" t="s">
+      <c r="FF1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="FF1" s="2" t="s">
+      <c r="FG1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="FG1" s="2" t="s">
+      <c r="FH1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="FH1" s="2" t="s">
+      <c r="FI1" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:164" ht="15.75" customHeight="1">
+    <row r="2" spans="1:165" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -1725,6 +1731,9 @@
         <v>63</v>
       </c>
       <c r="FH2" t="s">
+        <v>63</v>
+      </c>
+      <c r="FI2" t="s">
         <v>63</v>
       </c>
     </row>
